--- a/medicine/Pharmacie/Biogaran/Biogaran.xlsx
+++ b/medicine/Pharmacie/Biogaran/Biogaran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Biogaran est une entreprise pharmaceutique française créé en 1996, filiale à 100 % de Servier, spécialisée dans les médicaments génériques.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Biogaran (contraction de l'expression « bioéquivalence garantie ») a été créé en 1996, l'année même où le générique a reçu sa définition légale en France.
 </t>
@@ -543,7 +557,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est dirigé depuis sa création en 1996 par son président, Pascal Brière.
 Jusqu'en octobre 2011, le directeur général, Opérations de Biogaran est Erick Roche. En 2020, Jérôme Wirotius prend la tête du groupe.
@@ -575,7 +591,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En janvier 2020, Le laboratoire Biogaran déclare commercialiser plus de 850 médicaments génériques en France.
 </t>
@@ -606,7 +624,9 @@
           <t>Données financières</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de 20 millions de boîtes de médicaments sont distribuées chaque mois (Source : GERS 07/2015).
 Le chiffre d'affaires de Biogaran pour l'année 2014 est de 890 M€ (Source GERS décembre 2014). Il est de 704 M€ en 2016 et de 727 M€ en 2017.
